--- a/teaching/traditional_assets/database/data/hungary/hungary_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,115 +591,115 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.04481957102089663</v>
+        <v>0.02889833641404806</v>
       </c>
       <c r="H2">
-        <v>0.04481957102089663</v>
+        <v>0.02889833641404806</v>
       </c>
       <c r="I2">
-        <v>0.03918500107398202</v>
+        <v>-0.007390018484288353</v>
       </c>
       <c r="J2">
-        <v>0.03230753339579102</v>
+        <v>-0.006158348736906961</v>
       </c>
       <c r="K2">
-        <v>6.92</v>
+        <v>-3.316</v>
       </c>
       <c r="L2">
-        <v>0.02654269845653441</v>
+        <v>-0.01225878003696858</v>
       </c>
       <c r="M2">
-        <v>6.145</v>
+        <v>3.46</v>
       </c>
       <c r="N2">
-        <v>0.03465877044557247</v>
+        <v>0.03002950876583926</v>
       </c>
       <c r="O2">
-        <v>0.8880057803468209</v>
+        <v>-1.043425814234017</v>
       </c>
       <c r="P2">
-        <v>0.705</v>
+        <v>1.04</v>
       </c>
       <c r="Q2">
-        <v>0.003976311336717428</v>
+        <v>0.009026210727304288</v>
       </c>
       <c r="R2">
-        <v>0.101878612716763</v>
+        <v>-0.3136308805790109</v>
       </c>
       <c r="S2">
-        <v>5.44</v>
+        <v>2.42</v>
       </c>
       <c r="T2">
-        <v>0.8852725793327909</v>
+        <v>0.6994219653179191</v>
       </c>
       <c r="U2">
-        <v>18.89</v>
+        <v>28.239</v>
       </c>
       <c r="V2">
-        <v>0.1065425831923294</v>
+        <v>0.2450876583926402</v>
       </c>
       <c r="W2">
-        <v>-0.09551110367146526</v>
+        <v>-0.02985781990521327</v>
       </c>
       <c r="X2">
-        <v>0.06142215937453983</v>
+        <v>0.07054030257711663</v>
       </c>
       <c r="Y2">
-        <v>-0.1569332630460051</v>
+        <v>-0.1003981224823299</v>
       </c>
       <c r="Z2">
-        <v>3.019701865943917</v>
+        <v>2.131582887447695</v>
       </c>
       <c r="AA2">
-        <v>1.277066371417884</v>
+        <v>0.01757402101241643</v>
       </c>
       <c r="AB2">
-        <v>0.06087374340832555</v>
+        <v>0.05857512243026935</v>
       </c>
       <c r="AC2">
-        <v>1.212216952621282</v>
+        <v>-0.04100110141785292</v>
       </c>
       <c r="AD2">
-        <v>47.028</v>
+        <v>84.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>47.028</v>
+        <v>84.5</v>
       </c>
       <c r="AG2">
-        <v>28.138</v>
+        <v>56.261</v>
       </c>
       <c r="AH2">
-        <v>0.2096394565101102</v>
+        <v>0.4230923292609653</v>
       </c>
       <c r="AI2">
-        <v>0.2682654132250262</v>
+        <v>0.4552041415496334</v>
       </c>
       <c r="AJ2">
-        <v>0.1369658972536726</v>
+        <v>0.3280888261673305</v>
       </c>
       <c r="AK2">
-        <v>0.1798943828557546</v>
+        <v>0.3574578123411609</v>
       </c>
       <c r="AL2">
-        <v>0.544</v>
+        <v>1.792</v>
       </c>
       <c r="AM2">
-        <v>-0.426</v>
+        <v>1.634</v>
       </c>
       <c r="AN2">
-        <v>3.498586519863116</v>
+        <v>41.21951219512196</v>
       </c>
       <c r="AO2">
-        <v>18.77941176470588</v>
+        <v>-1.115513392857143</v>
       </c>
       <c r="AP2">
-        <v>2.09328968903437</v>
+        <v>27.44439024390244</v>
       </c>
       <c r="AQ2">
-        <v>-23.98122065727699</v>
+        <v>-1.223378212974296</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.06</v>
+        <v>-0.036</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -743,31 +743,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01547619047619048</v>
       </c>
       <c r="W3">
-        <v>-1.621621621621622</v>
+        <v>1.5</v>
       </c>
       <c r="X3">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="Y3">
-        <v>-1.68130850016615</v>
+        <v>1.453035627821761</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>19.99999999999998</v>
+        <v>1.625</v>
       </c>
       <c r="AB3">
-        <v>0.05968687854452819</v>
+        <v>0.04696437217823866</v>
       </c>
       <c r="AC3">
-        <v>19.94031312145545</v>
+        <v>1.578035627821761</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -779,37 +779,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-0.039</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.01571946795646917</v>
       </c>
       <c r="AK3">
-        <v>-0</v>
+        <v>4.875</v>
       </c>
       <c r="AL3">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AO3">
-        <v>-20</v>
-      </c>
-      <c r="AP3">
-        <v>-0</v>
-      </c>
-      <c r="AQ3">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,31 +817,31 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.03011811023622047</v>
+        <v>0.02998102466793169</v>
       </c>
       <c r="H4">
-        <v>0.03011811023622047</v>
+        <v>0.02998102466793169</v>
       </c>
       <c r="I4">
-        <v>0.02267716535433071</v>
+        <v>0.00698292220113852</v>
       </c>
       <c r="J4">
-        <v>0.01891005513427864</v>
+        <v>0.00349146110056926</v>
       </c>
       <c r="K4">
-        <v>4.06</v>
+        <v>-0.76</v>
       </c>
       <c r="L4">
-        <v>0.01598425196850393</v>
+        <v>-0.002884250474383302</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>2.42</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.02746878547105562</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>-3.184210526315789</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -862,79 +850,82 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.42</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>6.23</v>
+        <v>14.2</v>
       </c>
       <c r="V4">
-        <v>0.07015765765765766</v>
+        <v>0.1611804767309875</v>
       </c>
       <c r="W4">
-        <v>2.103626943005181</v>
+        <v>-0.04606060606060606</v>
       </c>
       <c r="X4">
-        <v>0.0779009586230795</v>
+        <v>0.07054030257711663</v>
       </c>
       <c r="Y4">
-        <v>2.025725984382102</v>
+        <v>-0.1166009086377227</v>
       </c>
       <c r="Z4">
-        <v>132.2228006246746</v>
+        <v>5.033428844317096</v>
       </c>
       <c r="AA4">
-        <v>2.50034044982133</v>
+        <v>0.01757402101241643</v>
       </c>
       <c r="AB4">
-        <v>0.06796613175235505</v>
+        <v>0.05857512243026935</v>
       </c>
       <c r="AC4">
-        <v>2.432374318068975</v>
+        <v>-0.04100110141785292</v>
       </c>
       <c r="AD4">
-        <v>43.9</v>
+        <v>60.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>43.9</v>
+        <v>60.6</v>
       </c>
       <c r="AG4">
-        <v>37.67</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.3308214016578749</v>
+        <v>0.4075319435104237</v>
       </c>
       <c r="AI4">
-        <v>0.7268211920529801</v>
+        <v>0.7444717444717445</v>
       </c>
       <c r="AJ4">
-        <v>0.2978571993358109</v>
+        <v>0.3449814126394052</v>
       </c>
       <c r="AK4">
-        <v>0.6954033597932435</v>
+        <v>0.6904761904761906</v>
       </c>
       <c r="AL4">
-        <v>0.339</v>
+        <v>0.582</v>
       </c>
       <c r="AM4">
-        <v>0.286</v>
+        <v>0.5509999999999999</v>
       </c>
       <c r="AN4">
-        <v>5.399753997539975</v>
+        <v>12.41803278688525</v>
       </c>
       <c r="AO4">
-        <v>16.99115044247787</v>
+        <v>3.161512027491409</v>
       </c>
       <c r="AP4">
-        <v>4.633456334563346</v>
+        <v>9.508196721311476</v>
       </c>
       <c r="AQ4">
-        <v>20.13986013986014</v>
+        <v>3.339382940108893</v>
       </c>
     </row>
     <row r="5">
@@ -954,40 +945,40 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.3454810495626822</v>
+        <v>-0.006285714285714285</v>
       </c>
       <c r="H5">
-        <v>0.3454810495626822</v>
+        <v>-0.006285714285714285</v>
       </c>
       <c r="I5">
-        <v>0.651603498542274</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="J5">
-        <v>0.6268684082293378</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="K5">
-        <v>3.96</v>
+        <v>-2.52</v>
       </c>
       <c r="L5">
-        <v>0.5772594752186588</v>
+        <v>-0.36</v>
       </c>
       <c r="M5">
-        <v>0.705</v>
+        <v>1.04</v>
       </c>
       <c r="N5">
-        <v>0.02149390243902439</v>
+        <v>0.04227642276422764</v>
       </c>
       <c r="O5">
-        <v>0.178030303030303</v>
+        <v>-0.4126984126984127</v>
       </c>
       <c r="P5">
-        <v>0.705</v>
+        <v>1.04</v>
       </c>
       <c r="Q5">
-        <v>0.02149390243902439</v>
+        <v>0.04227642276422764</v>
       </c>
       <c r="R5">
-        <v>0.178030303030303</v>
+        <v>-0.4126984126984127</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -996,201 +987,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V5">
-        <v>0.3810975609756098</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="W5">
-        <v>0.04805825242718446</v>
+        <v>-0.02985781990521327</v>
       </c>
       <c r="X5">
-        <v>0.06296680944905625</v>
+        <v>0.08026365797110502</v>
       </c>
       <c r="Y5">
-        <v>-0.01490855702187178</v>
+        <v>-0.1101214778763183</v>
       </c>
       <c r="Z5">
-        <v>0.08581114043756176</v>
+        <v>0.09386523633925578</v>
       </c>
       <c r="AA5">
-        <v>0.0537922930144385</v>
+        <v>-0.05095541401273885</v>
       </c>
       <c r="AB5">
-        <v>0.06173270584085063</v>
+        <v>0.06100397397579552</v>
       </c>
       <c r="AC5">
-        <v>-0.007940412826412134</v>
+        <v>-0.1119593879885344</v>
       </c>
       <c r="AD5">
-        <v>2.92</v>
+        <v>23.9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2.92</v>
+        <v>23.9</v>
       </c>
       <c r="AG5">
-        <v>-9.58</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.08174692049272117</v>
+        <v>0.4927835051546391</v>
       </c>
       <c r="AI5">
-        <v>0.03066582650703634</v>
+        <v>0.2293666026871401</v>
       </c>
       <c r="AJ5">
-        <v>-0.4125753660637382</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="AK5">
-        <v>-0.1158123791102515</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="AL5">
-        <v>0.106</v>
+        <v>1.21</v>
       </c>
       <c r="AM5">
-        <v>-0.8110000000000001</v>
+        <v>1.083</v>
       </c>
       <c r="AN5">
-        <v>0.5468164794007491</v>
+        <v>-8.445229681978798</v>
       </c>
       <c r="AO5">
-        <v>42.16981132075472</v>
+        <v>-3.140495867768595</v>
       </c>
       <c r="AP5">
-        <v>-1.794007490636704</v>
+        <v>-3.498233215547703</v>
       </c>
       <c r="AQ5">
-        <v>-5.511713933415535</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AKKO Invest Nyrt. (BUSE:AKKO)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>-11.75675675675676</v>
-      </c>
-      <c r="H6">
-        <v>-11.75675675675676</v>
-      </c>
-      <c r="I6">
-        <v>-0.3108108108108108</v>
-      </c>
-      <c r="J6">
-        <v>-0.1560358532975166</v>
-      </c>
-      <c r="K6">
-        <v>-1.04</v>
-      </c>
-      <c r="L6">
-        <v>7.027027027027027</v>
-      </c>
-      <c r="M6">
-        <v>5.44</v>
-      </c>
-      <c r="N6">
-        <v>0.1353233830845771</v>
-      </c>
-      <c r="O6">
-        <v>-5.230769230769231</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>5.44</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0.16</v>
-      </c>
-      <c r="V6">
-        <v>0.003980099502487562</v>
-      </c>
-      <c r="W6">
-        <v>-0.239080459770115</v>
-      </c>
-      <c r="X6">
-        <v>0.0598775093000234</v>
-      </c>
-      <c r="Y6">
-        <v>-0.2989579690701384</v>
-      </c>
-      <c r="Z6">
-        <v>-0.03306523681858802</v>
-      </c>
-      <c r="AA6">
-        <v>0.005159362441472846</v>
-      </c>
-      <c r="AB6">
-        <v>0.06001478097580047</v>
-      </c>
-      <c r="AC6">
-        <v>-0.05485541853432763</v>
-      </c>
-      <c r="AD6">
-        <v>0.208</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.208</v>
-      </c>
-      <c r="AG6">
-        <v>0.04799999999999999</v>
-      </c>
-      <c r="AH6">
-        <v>0.005147495545436547</v>
-      </c>
-      <c r="AI6">
-        <v>0.01055408970976253</v>
-      </c>
-      <c r="AJ6">
-        <v>0.001192605843768634</v>
-      </c>
-      <c r="AK6">
-        <v>0.00245549416820135</v>
-      </c>
-      <c r="AL6">
-        <v>0.096</v>
-      </c>
-      <c r="AM6">
-        <v>0.096</v>
-      </c>
-      <c r="AN6">
-        <v>6.5</v>
-      </c>
-      <c r="AO6">
-        <v>0.4791666666666666</v>
-      </c>
-      <c r="AP6">
-        <v>1.5</v>
-      </c>
-      <c r="AQ6">
-        <v>0.4791666666666666</v>
+        <v>-3.508771929824561</v>
       </c>
     </row>
   </sheetData>
